--- a/MECE_Movie Rental.xlsx
+++ b/MECE_Movie Rental.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sales Analysis</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Movie Rental MECE Breakdown - Statement</t>
+  </si>
+  <si>
+    <t>Inventory Analysis</t>
+  </si>
+  <si>
+    <t>The inventory analysis is going to take a closer look at the availability of the films in every store at different locations and their distribution on the basis of the language, genre, rental time and duration and the average price at which they are being rented.</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -392,69 +398,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -478,59 +556,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -540,6 +567,114 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:U48"/>
+  <dimension ref="C2:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,9 +969,11 @@
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -856,52 +993,61 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="9"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -921,8 +1067,11 @@
       <c r="S5" s="2"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -942,8 +1091,11 @@
       <c r="S6" s="2"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -963,37 +1115,45 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="3:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="3:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="34"/>
+      <c r="X8" s="35"/>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1013,8 +1173,11 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1034,269 +1197,305 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="22" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="22" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="22" t="s">
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="19"/>
+      <c r="X11" s="20"/>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="22" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="51" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="51" t="s">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="17"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" s="19"/>
+      <c r="X13" s="20"/>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="22" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="51" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="51" t="s">
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="53"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
       <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
       <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
       <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
       <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1316,8 +1515,11 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1337,8 +1539,11 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1358,8 +1563,11 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1379,510 +1587,666 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="3:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="27" t="s">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="3:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-    </row>
-    <row r="27" spans="3:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-    </row>
-    <row r="30" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C31" s="33" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+    </row>
+    <row r="27" spans="3:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+    </row>
+    <row r="30" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+    </row>
+    <row r="31" spans="3:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="35"/>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="38"/>
-    </row>
-    <row r="33" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="41"/>
-    </row>
-    <row r="34" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="33" t="s">
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="7"/>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="7"/>
+    </row>
+    <row r="33" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="7"/>
+    </row>
+    <row r="34" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+    </row>
+    <row r="35" spans="3:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="35"/>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="38"/>
-    </row>
-    <row r="37" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="41"/>
-    </row>
-    <row r="38" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="42" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="7"/>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="7"/>
+    </row>
+    <row r="37" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="7"/>
+    </row>
+    <row r="38" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+    </row>
+    <row r="39" spans="3:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="44"/>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="47"/>
-    </row>
-    <row r="41" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="50"/>
-    </row>
-    <row r="42" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="33" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="7"/>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="7"/>
+    </row>
+    <row r="41" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="7"/>
+    </row>
+    <row r="42" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+    </row>
+    <row r="43" spans="3:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="35"/>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="36"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="38"/>
-    </row>
-    <row r="45" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="41"/>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-    </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-    </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="7"/>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="7"/>
+    </row>
+    <row r="45" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="7"/>
+    </row>
+    <row r="46" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C47" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="7"/>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C48" s="46"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="7"/>
+    </row>
+    <row r="49" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="7"/>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C43:U45"/>
-    <mergeCell ref="G26:P27"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="C31:U33"/>
-    <mergeCell ref="C35:U37"/>
-    <mergeCell ref="C39:U41"/>
+  <mergeCells count="27">
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C31:W33"/>
+    <mergeCell ref="C35:W37"/>
+    <mergeCell ref="C39:W41"/>
+    <mergeCell ref="C43:W45"/>
+    <mergeCell ref="C47:W49"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="G3:P4"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="L13:O13"/>
@@ -1891,15 +2255,7 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="G3:P4"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="G26:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
